--- a/excel/finished/wg9#焦化/筛焦除尘操作记录.xlsx
+++ b/excel/finished/wg9#焦化/筛焦除尘操作记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\templates\焦化910\干熄焦\cn_zh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYSD 12\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58ECFFE-A857-4400-93DF-E92A87BCD409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBE86D1-72AA-4907-BAE8-69E4B5AD880B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,13 +19,12 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,9 +32,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>筛焦除尘操作记录</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编号：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>JL/LHJH-SCB-129</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -68,7 +99,129 @@
       </rPr>
       <t>时间</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度（℃）</t>
+  </si>
+  <si>
+    <t>压力</t>
+  </si>
+  <si>
+    <t>风机轴承振幅A（mm）</t>
+  </si>
+  <si>
+    <t>风机轴承振幅B（mm）</t>
+  </si>
+  <si>
+    <t>冷却水流量（t/h）</t>
+  </si>
+  <si>
+    <t>风机轴承温度A</t>
+  </si>
+  <si>
+    <t>风机轴承温度B</t>
+  </si>
+  <si>
+    <t>电机轴承温度A</t>
+  </si>
+  <si>
+    <t>电机轴承温度B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>除尘器压差（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kpa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风机入口吸力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>风机入口吸力B（Pa）</t>
+  </si>
+  <si>
+    <t>风机入口吸力C（Pa）</t>
+  </si>
+  <si>
+    <t>供气压力（kPa）</t>
+  </si>
+  <si>
+    <t>进油</t>
+  </si>
+  <si>
+    <t>出油</t>
   </si>
   <si>
     <r>
@@ -81,82 +234,15 @@
       </rPr>
       <t>温度</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编号：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>JL/LHJH-SCB-129</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度（℃）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>除尘器压差（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Kpa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -178,77 +264,18 @@
       </rPr>
       <t xml:space="preserve">                                                      </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>记事：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>白班平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>夜班平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全天平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -289,22 +316,59 @@
       </rPr>
       <t>:</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛焦除尘操作记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CC_SJCC_FJ_1TE</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CC_SJCC_FJ_2TE</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CC_SJCC_DJ_1TE</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CC_SJCC_DJ_2TE</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CC_SJCC_PDIA</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CC_CCJC_FJ_INPUT_PT2</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CC_CCJC_FJ_INPUT_PT1</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CC_CCJC_FJ_INPUT_PT3</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CC_SJCC_AIR</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CC_SJCC_ZISA_01A</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CC_SJCC_ZISA_01B</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CC_SJCC_FIA</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <r>
+      <t>%</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>风机入口吸力</t>
+      <t>当前日期</t>
     </r>
     <r>
       <rPr>
@@ -313,108 +377,9 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风机入口吸力B（Pa）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风机入口吸力C（Pa）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供气压力（kPa）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却水流量（t/h）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风机轴承振幅A（mm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风机轴承振幅B（mm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风机轴承温度A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风机轴承温度B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机轴承温度A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机轴承温度B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L2C_CC_TE_3TRSA_25402</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L2C_CC_TE_3TISA_25405</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L2C_CC_TE_3TISA_25403</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L2C_CC_TE_3TISA_25404</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L2C_CC_AI_3PdIA_25401</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L2C_CC_AI_3PIA_25402</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L2C_CC_FJ_Current</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L2C_CC_FJ_Speed_ACT</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L2C_CC_AI_3FIA_25401</t>
+      <t>%</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -422,37 +387,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.0_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -466,6 +409,28 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -483,21 +448,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -507,8 +458,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -521,17 +487,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -540,6 +506,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -552,6 +531,149 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="medium">
+        <color theme="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="medium">
+        <color theme="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -563,83 +685,48 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="medium">
-        <color theme="1"/>
-      </diagonal>
-    </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="medium">
-        <color theme="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -653,9 +740,11 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -664,41 +753,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -709,284 +769,155 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thick">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{72BF02D6-3455-4C50-8D79-B7EBD8087E1F}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{FC6EF5C0-1840-477E-A5E9-F9C791C49F5E}"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1254,1144 +1185,1146 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q24"/>
+  <dimension ref="B2:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:N22"/>
+      <selection activeCell="N3" sqref="N3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="9.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="2:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="2:17" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="38" t="s">
+    <row r="5" spans="2:17" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30"/>
+      <c r="N5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="35"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="2:17" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
-      <c r="C6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="40"/>
+    </row>
+    <row r="7" spans="2:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="E7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="33"/>
-    </row>
-    <row r="7" spans="2:17" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="8">
         <v>20</v>
       </c>
-      <c r="C8" s="41" t="str">
+      <c r="C8" s="9" t="str">
         <f>IF(_tags_day_all!A2="","",_tags_day_all!A2)</f>
         <v/>
       </c>
-      <c r="D8" s="41" t="str">
+      <c r="D8" s="9" t="str">
         <f>IF(_tags_day_all!B2="","",_tags_day_all!B2)</f>
         <v/>
       </c>
-      <c r="E8" s="41" t="str">
+      <c r="E8" s="9" t="str">
         <f>IF(_tags_day_all!C2="","",_tags_day_all!C2)</f>
         <v/>
       </c>
-      <c r="F8" s="41" t="str">
+      <c r="F8" s="9" t="str">
         <f>IF(_tags_day_all!D2="","",_tags_day_all!D2)</f>
         <v/>
       </c>
-      <c r="G8" s="41" t="str">
+      <c r="G8" s="9" t="str">
         <f>IF(_tags_day_all!E2="","",_tags_day_all!E2)</f>
         <v/>
       </c>
-      <c r="H8" s="41" t="str">
+      <c r="H8" s="9" t="str">
         <f>IF(_tags_day_all!F2="","",_tags_day_all!F2)</f>
         <v/>
       </c>
-      <c r="I8" s="41" t="str">
+      <c r="I8" s="9" t="str">
         <f>IF(_tags_day_all!G2="","",_tags_day_all!G2)</f>
         <v/>
       </c>
-      <c r="J8" s="41" t="str">
+      <c r="J8" s="9" t="str">
         <f>IF(_tags_day_all!H2="","",_tags_day_all!H2)</f>
         <v/>
       </c>
-      <c r="K8" s="41" t="str">
+      <c r="K8" s="9" t="str">
         <f>IF(_tags_day_all!I2="","",_tags_day_all!I2)</f>
         <v/>
       </c>
-      <c r="L8" s="41" t="str">
+      <c r="L8" s="9" t="str">
         <f>IF(_tags_day_all!J2="","",_tags_day_all!J2)</f>
         <v/>
       </c>
-      <c r="M8" s="41" t="str">
+      <c r="M8" s="9" t="str">
         <f>IF(_tags_day_all!K2="","",_tags_day_all!K2)</f>
         <v/>
       </c>
-      <c r="N8" s="41" t="str">
+      <c r="N8" s="9" t="str">
         <f>IF(_tags_day_all!L2="","",_tags_day_all!L2)</f>
         <v/>
       </c>
-      <c r="O8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
+      <c r="O8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="8">
         <v>22</v>
       </c>
-      <c r="C9" s="41" t="str">
+      <c r="C9" s="9" t="str">
         <f>IF(_tags_day_all!A3="","",_tags_day_all!A3)</f>
         <v/>
       </c>
-      <c r="D9" s="41" t="str">
+      <c r="D9" s="9" t="str">
         <f>IF(_tags_day_all!B3="","",_tags_day_all!B3)</f>
         <v/>
       </c>
-      <c r="E9" s="41" t="str">
+      <c r="E9" s="9" t="str">
         <f>IF(_tags_day_all!C3="","",_tags_day_all!C3)</f>
         <v/>
       </c>
-      <c r="F9" s="41" t="str">
+      <c r="F9" s="9" t="str">
         <f>IF(_tags_day_all!D3="","",_tags_day_all!D3)</f>
         <v/>
       </c>
-      <c r="G9" s="41" t="str">
+      <c r="G9" s="9" t="str">
         <f>IF(_tags_day_all!E3="","",_tags_day_all!E3)</f>
         <v/>
       </c>
-      <c r="H9" s="41" t="str">
+      <c r="H9" s="9" t="str">
         <f>IF(_tags_day_all!F3="","",_tags_day_all!F3)</f>
         <v/>
       </c>
-      <c r="I9" s="41" t="str">
+      <c r="I9" s="9" t="str">
         <f>IF(_tags_day_all!G3="","",_tags_day_all!G3)</f>
         <v/>
       </c>
-      <c r="J9" s="41" t="str">
+      <c r="J9" s="9" t="str">
         <f>IF(_tags_day_all!H3="","",_tags_day_all!H3)</f>
         <v/>
       </c>
-      <c r="K9" s="41" t="str">
+      <c r="K9" s="9" t="str">
         <f>IF(_tags_day_all!I3="","",_tags_day_all!I3)</f>
         <v/>
       </c>
-      <c r="L9" s="41" t="str">
+      <c r="L9" s="9" t="str">
         <f>IF(_tags_day_all!J3="","",_tags_day_all!J3)</f>
         <v/>
       </c>
-      <c r="M9" s="41" t="str">
+      <c r="M9" s="9" t="str">
         <f>IF(_tags_day_all!K3="","",_tags_day_all!K3)</f>
         <v/>
       </c>
-      <c r="N9" s="41" t="str">
+      <c r="N9" s="9" t="str">
         <f>IF(_tags_day_all!L3="","",_tags_day_all!L3)</f>
         <v/>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="24"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="8">
         <v>24</v>
       </c>
-      <c r="C10" s="41" t="str">
+      <c r="C10" s="9" t="str">
         <f>IF(_tags_day_all!A4="","",_tags_day_all!A4)</f>
         <v/>
       </c>
-      <c r="D10" s="41" t="str">
+      <c r="D10" s="9" t="str">
         <f>IF(_tags_day_all!B4="","",_tags_day_all!B4)</f>
         <v/>
       </c>
-      <c r="E10" s="41" t="str">
+      <c r="E10" s="9" t="str">
         <f>IF(_tags_day_all!C4="","",_tags_day_all!C4)</f>
         <v/>
       </c>
-      <c r="F10" s="41" t="str">
+      <c r="F10" s="9" t="str">
         <f>IF(_tags_day_all!D4="","",_tags_day_all!D4)</f>
         <v/>
       </c>
-      <c r="G10" s="41" t="str">
+      <c r="G10" s="9" t="str">
         <f>IF(_tags_day_all!E4="","",_tags_day_all!E4)</f>
         <v/>
       </c>
-      <c r="H10" s="41" t="str">
+      <c r="H10" s="9" t="str">
         <f>IF(_tags_day_all!F4="","",_tags_day_all!F4)</f>
         <v/>
       </c>
-      <c r="I10" s="41" t="str">
+      <c r="I10" s="9" t="str">
         <f>IF(_tags_day_all!G4="","",_tags_day_all!G4)</f>
         <v/>
       </c>
-      <c r="J10" s="41" t="str">
+      <c r="J10" s="9" t="str">
         <f>IF(_tags_day_all!H4="","",_tags_day_all!H4)</f>
         <v/>
       </c>
-      <c r="K10" s="41" t="str">
+      <c r="K10" s="9" t="str">
         <f>IF(_tags_day_all!I4="","",_tags_day_all!I4)</f>
         <v/>
       </c>
-      <c r="L10" s="41" t="str">
+      <c r="L10" s="9" t="str">
         <f>IF(_tags_day_all!J4="","",_tags_day_all!J4)</f>
         <v/>
       </c>
-      <c r="M10" s="41" t="str">
+      <c r="M10" s="9" t="str">
         <f>IF(_tags_day_all!K4="","",_tags_day_all!K4)</f>
         <v/>
       </c>
-      <c r="N10" s="41" t="str">
+      <c r="N10" s="9" t="str">
         <f>IF(_tags_day_all!L4="","",_tags_day_all!L4)</f>
         <v/>
       </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="24"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11" s="8">
         <v>2</v>
       </c>
-      <c r="C11" s="41" t="str">
+      <c r="C11" s="9" t="str">
         <f>IF(_tags_day_all!A5="","",_tags_day_all!A5)</f>
         <v/>
       </c>
-      <c r="D11" s="41" t="str">
+      <c r="D11" s="9" t="str">
         <f>IF(_tags_day_all!B5="","",_tags_day_all!B5)</f>
         <v/>
       </c>
-      <c r="E11" s="41" t="str">
+      <c r="E11" s="9" t="str">
         <f>IF(_tags_day_all!C5="","",_tags_day_all!C5)</f>
         <v/>
       </c>
-      <c r="F11" s="41" t="str">
+      <c r="F11" s="9" t="str">
         <f>IF(_tags_day_all!D5="","",_tags_day_all!D5)</f>
         <v/>
       </c>
-      <c r="G11" s="41" t="str">
+      <c r="G11" s="9" t="str">
         <f>IF(_tags_day_all!E5="","",_tags_day_all!E5)</f>
         <v/>
       </c>
-      <c r="H11" s="41" t="str">
+      <c r="H11" s="9" t="str">
         <f>IF(_tags_day_all!F5="","",_tags_day_all!F5)</f>
         <v/>
       </c>
-      <c r="I11" s="41" t="str">
+      <c r="I11" s="9" t="str">
         <f>IF(_tags_day_all!G5="","",_tags_day_all!G5)</f>
         <v/>
       </c>
-      <c r="J11" s="41" t="str">
+      <c r="J11" s="9" t="str">
         <f>IF(_tags_day_all!H5="","",_tags_day_all!H5)</f>
         <v/>
       </c>
-      <c r="K11" s="41" t="str">
+      <c r="K11" s="9" t="str">
         <f>IF(_tags_day_all!I5="","",_tags_day_all!I5)</f>
         <v/>
       </c>
-      <c r="L11" s="41" t="str">
+      <c r="L11" s="9" t="str">
         <f>IF(_tags_day_all!J5="","",_tags_day_all!J5)</f>
         <v/>
       </c>
-      <c r="M11" s="41" t="str">
+      <c r="M11" s="9" t="str">
         <f>IF(_tags_day_all!K5="","",_tags_day_all!K5)</f>
         <v/>
       </c>
-      <c r="N11" s="41" t="str">
+      <c r="N11" s="9" t="str">
         <f>IF(_tags_day_all!L5="","",_tags_day_all!L5)</f>
         <v/>
       </c>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="24"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="31"/>
     </row>
     <row r="12" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="8">
         <v>4</v>
       </c>
-      <c r="C12" s="41" t="str">
+      <c r="C12" s="9" t="str">
         <f>IF(_tags_day_all!A6="","",_tags_day_all!A6)</f>
         <v/>
       </c>
-      <c r="D12" s="41" t="str">
+      <c r="D12" s="9" t="str">
         <f>IF(_tags_day_all!B6="","",_tags_day_all!B6)</f>
         <v/>
       </c>
-      <c r="E12" s="41" t="str">
+      <c r="E12" s="9" t="str">
         <f>IF(_tags_day_all!C6="","",_tags_day_all!C6)</f>
         <v/>
       </c>
-      <c r="F12" s="41" t="str">
+      <c r="F12" s="9" t="str">
         <f>IF(_tags_day_all!D6="","",_tags_day_all!D6)</f>
         <v/>
       </c>
-      <c r="G12" s="41" t="str">
+      <c r="G12" s="9" t="str">
         <f>IF(_tags_day_all!E6="","",_tags_day_all!E6)</f>
         <v/>
       </c>
-      <c r="H12" s="41" t="str">
+      <c r="H12" s="9" t="str">
         <f>IF(_tags_day_all!F6="","",_tags_day_all!F6)</f>
         <v/>
       </c>
-      <c r="I12" s="41" t="str">
+      <c r="I12" s="9" t="str">
         <f>IF(_tags_day_all!G6="","",_tags_day_all!G6)</f>
         <v/>
       </c>
-      <c r="J12" s="41" t="str">
+      <c r="J12" s="9" t="str">
         <f>IF(_tags_day_all!H6="","",_tags_day_all!H6)</f>
         <v/>
       </c>
-      <c r="K12" s="41" t="str">
+      <c r="K12" s="9" t="str">
         <f>IF(_tags_day_all!I6="","",_tags_day_all!I6)</f>
         <v/>
       </c>
-      <c r="L12" s="41" t="str">
+      <c r="L12" s="9" t="str">
         <f>IF(_tags_day_all!J6="","",_tags_day_all!J6)</f>
         <v/>
       </c>
-      <c r="M12" s="41" t="str">
+      <c r="M12" s="9" t="str">
         <f>IF(_tags_day_all!K6="","",_tags_day_all!K6)</f>
         <v/>
       </c>
-      <c r="N12" s="41" t="str">
+      <c r="N12" s="9" t="str">
         <f>IF(_tags_day_all!L6="","",_tags_day_all!L6)</f>
         <v/>
       </c>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="24"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="B13" s="8">
         <v>6</v>
       </c>
-      <c r="C13" s="41" t="str">
+      <c r="C13" s="9" t="str">
         <f>IF(_tags_day_all!A7="","",_tags_day_all!A7)</f>
         <v/>
       </c>
-      <c r="D13" s="41" t="str">
+      <c r="D13" s="9" t="str">
         <f>IF(_tags_day_all!B7="","",_tags_day_all!B7)</f>
         <v/>
       </c>
-      <c r="E13" s="41" t="str">
+      <c r="E13" s="9" t="str">
         <f>IF(_tags_day_all!C7="","",_tags_day_all!C7)</f>
         <v/>
       </c>
-      <c r="F13" s="41" t="str">
+      <c r="F13" s="9" t="str">
         <f>IF(_tags_day_all!D7="","",_tags_day_all!D7)</f>
         <v/>
       </c>
-      <c r="G13" s="41" t="str">
+      <c r="G13" s="9" t="str">
         <f>IF(_tags_day_all!E7="","",_tags_day_all!E7)</f>
         <v/>
       </c>
-      <c r="H13" s="41" t="str">
+      <c r="H13" s="9" t="str">
         <f>IF(_tags_day_all!F7="","",_tags_day_all!F7)</f>
         <v/>
       </c>
-      <c r="I13" s="41" t="str">
+      <c r="I13" s="9" t="str">
         <f>IF(_tags_day_all!G7="","",_tags_day_all!G7)</f>
         <v/>
       </c>
-      <c r="J13" s="41" t="str">
+      <c r="J13" s="9" t="str">
         <f>IF(_tags_day_all!H7="","",_tags_day_all!H7)</f>
         <v/>
       </c>
-      <c r="K13" s="41" t="str">
+      <c r="K13" s="9" t="str">
         <f>IF(_tags_day_all!I7="","",_tags_day_all!I7)</f>
         <v/>
       </c>
-      <c r="L13" s="41" t="str">
+      <c r="L13" s="9" t="str">
         <f>IF(_tags_day_all!J7="","",_tags_day_all!J7)</f>
         <v/>
       </c>
-      <c r="M13" s="41" t="str">
+      <c r="M13" s="9" t="str">
         <f>IF(_tags_day_all!K7="","",_tags_day_all!K7)</f>
         <v/>
       </c>
-      <c r="N13" s="41" t="str">
+      <c r="N13" s="9" t="str">
         <f>IF(_tags_day_all!L7="","",_tags_day_all!L7)</f>
         <v/>
       </c>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="24"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="31"/>
     </row>
     <row r="14" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="B14" s="8">
         <v>8</v>
       </c>
-      <c r="C14" s="41" t="str">
+      <c r="C14" s="9" t="str">
         <f>IF(_tags_day_all!A8="","",_tags_day_all!A8)</f>
         <v/>
       </c>
-      <c r="D14" s="41" t="str">
+      <c r="D14" s="9" t="str">
         <f>IF(_tags_day_all!B8="","",_tags_day_all!B8)</f>
         <v/>
       </c>
-      <c r="E14" s="41" t="str">
+      <c r="E14" s="9" t="str">
         <f>IF(_tags_day_all!C8="","",_tags_day_all!C8)</f>
         <v/>
       </c>
-      <c r="F14" s="41" t="str">
+      <c r="F14" s="9" t="str">
         <f>IF(_tags_day_all!D8="","",_tags_day_all!D8)</f>
         <v/>
       </c>
-      <c r="G14" s="41" t="str">
+      <c r="G14" s="9" t="str">
         <f>IF(_tags_day_all!E8="","",_tags_day_all!E8)</f>
         <v/>
       </c>
-      <c r="H14" s="41" t="str">
+      <c r="H14" s="9" t="str">
         <f>IF(_tags_day_all!F8="","",_tags_day_all!F8)</f>
         <v/>
       </c>
-      <c r="I14" s="41" t="str">
+      <c r="I14" s="9" t="str">
         <f>IF(_tags_day_all!G8="","",_tags_day_all!G8)</f>
         <v/>
       </c>
-      <c r="J14" s="41" t="str">
+      <c r="J14" s="9" t="str">
         <f>IF(_tags_day_all!H8="","",_tags_day_all!H8)</f>
         <v/>
       </c>
-      <c r="K14" s="41" t="str">
+      <c r="K14" s="9" t="str">
         <f>IF(_tags_day_all!I8="","",_tags_day_all!I8)</f>
         <v/>
       </c>
-      <c r="L14" s="41" t="str">
+      <c r="L14" s="9" t="str">
         <f>IF(_tags_day_all!J8="","",_tags_day_all!J8)</f>
         <v/>
       </c>
-      <c r="M14" s="41" t="str">
+      <c r="M14" s="9" t="str">
         <f>IF(_tags_day_all!K8="","",_tags_day_all!K8)</f>
         <v/>
       </c>
-      <c r="N14" s="41" t="str">
+      <c r="N14" s="9" t="str">
         <f>IF(_tags_day_all!L8="","",_tags_day_all!L8)</f>
         <v/>
       </c>
-      <c r="O14" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="27"/>
+      <c r="O14" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="34"/>
     </row>
     <row r="15" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="41" t="str">
+      <c r="C15" s="9" t="str">
         <f>IF(_tags_day_all!A9="","",_tags_day_all!A9)</f>
         <v/>
       </c>
-      <c r="D15" s="41" t="str">
+      <c r="D15" s="9" t="str">
         <f>IF(_tags_day_all!B9="","",_tags_day_all!B9)</f>
         <v/>
       </c>
-      <c r="E15" s="41" t="str">
+      <c r="E15" s="9" t="str">
         <f>IF(_tags_day_all!C9="","",_tags_day_all!C9)</f>
         <v/>
       </c>
-      <c r="F15" s="41" t="str">
+      <c r="F15" s="9" t="str">
         <f>IF(_tags_day_all!D9="","",_tags_day_all!D9)</f>
         <v/>
       </c>
-      <c r="G15" s="41" t="str">
+      <c r="G15" s="9" t="str">
         <f>IF(_tags_day_all!E9="","",_tags_day_all!E9)</f>
         <v/>
       </c>
-      <c r="H15" s="41" t="str">
+      <c r="H15" s="9" t="str">
         <f>IF(_tags_day_all!F9="","",_tags_day_all!F9)</f>
         <v/>
       </c>
-      <c r="I15" s="41" t="str">
+      <c r="I15" s="9" t="str">
         <f>IF(_tags_day_all!G9="","",_tags_day_all!G9)</f>
         <v/>
       </c>
-      <c r="J15" s="41" t="str">
+      <c r="J15" s="9" t="str">
         <f>IF(_tags_day_all!H9="","",_tags_day_all!H9)</f>
         <v/>
       </c>
-      <c r="K15" s="41" t="str">
+      <c r="K15" s="9" t="str">
         <f>IF(_tags_day_all!I9="","",_tags_day_all!I9)</f>
         <v/>
       </c>
-      <c r="L15" s="41" t="str">
+      <c r="L15" s="9" t="str">
         <f>IF(_tags_day_all!J9="","",_tags_day_all!J9)</f>
         <v/>
       </c>
-      <c r="M15" s="41" t="str">
+      <c r="M15" s="9" t="str">
         <f>IF(_tags_day_all!K9="","",_tags_day_all!K9)</f>
         <v/>
       </c>
-      <c r="N15" s="41" t="str">
+      <c r="N15" s="9" t="str">
         <f>IF(_tags_day_all!L9="","",_tags_day_all!L9)</f>
         <v/>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="27"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="34"/>
     </row>
     <row r="16" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+      <c r="B16" s="8">
         <v>12</v>
       </c>
-      <c r="C16" s="41" t="str">
+      <c r="C16" s="9" t="str">
         <f>IF(_tags_day_all!A10="","",_tags_day_all!A10)</f>
         <v/>
       </c>
-      <c r="D16" s="41" t="str">
+      <c r="D16" s="9" t="str">
         <f>IF(_tags_day_all!B10="","",_tags_day_all!B10)</f>
         <v/>
       </c>
-      <c r="E16" s="41" t="str">
+      <c r="E16" s="9" t="str">
         <f>IF(_tags_day_all!C10="","",_tags_day_all!C10)</f>
         <v/>
       </c>
-      <c r="F16" s="41" t="str">
+      <c r="F16" s="9" t="str">
         <f>IF(_tags_day_all!D10="","",_tags_day_all!D10)</f>
         <v/>
       </c>
-      <c r="G16" s="41" t="str">
+      <c r="G16" s="9" t="str">
         <f>IF(_tags_day_all!E10="","",_tags_day_all!E10)</f>
         <v/>
       </c>
-      <c r="H16" s="41" t="str">
+      <c r="H16" s="9" t="str">
         <f>IF(_tags_day_all!F10="","",_tags_day_all!F10)</f>
         <v/>
       </c>
-      <c r="I16" s="41" t="str">
+      <c r="I16" s="9" t="str">
         <f>IF(_tags_day_all!G10="","",_tags_day_all!G10)</f>
         <v/>
       </c>
-      <c r="J16" s="41" t="str">
+      <c r="J16" s="9" t="str">
         <f>IF(_tags_day_all!H10="","",_tags_day_all!H10)</f>
         <v/>
       </c>
-      <c r="K16" s="41" t="str">
+      <c r="K16" s="9" t="str">
         <f>IF(_tags_day_all!I10="","",_tags_day_all!I10)</f>
         <v/>
       </c>
-      <c r="L16" s="41" t="str">
+      <c r="L16" s="9" t="str">
         <f>IF(_tags_day_all!J10="","",_tags_day_all!J10)</f>
         <v/>
       </c>
-      <c r="M16" s="41" t="str">
+      <c r="M16" s="9" t="str">
         <f>IF(_tags_day_all!K10="","",_tags_day_all!K10)</f>
         <v/>
       </c>
-      <c r="N16" s="41" t="str">
+      <c r="N16" s="9" t="str">
         <f>IF(_tags_day_all!L10="","",_tags_day_all!L10)</f>
         <v/>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="27"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="34"/>
     </row>
     <row r="17" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+      <c r="B17" s="8">
         <v>14</v>
       </c>
-      <c r="C17" s="41" t="str">
+      <c r="C17" s="9" t="str">
         <f>IF(_tags_day_all!A11="","",_tags_day_all!A11)</f>
         <v/>
       </c>
-      <c r="D17" s="41" t="str">
+      <c r="D17" s="9" t="str">
         <f>IF(_tags_day_all!B11="","",_tags_day_all!B11)</f>
         <v/>
       </c>
-      <c r="E17" s="41" t="str">
+      <c r="E17" s="9" t="str">
         <f>IF(_tags_day_all!C11="","",_tags_day_all!C11)</f>
         <v/>
       </c>
-      <c r="F17" s="41" t="str">
+      <c r="F17" s="9" t="str">
         <f>IF(_tags_day_all!D11="","",_tags_day_all!D11)</f>
         <v/>
       </c>
-      <c r="G17" s="41" t="str">
+      <c r="G17" s="9" t="str">
         <f>IF(_tags_day_all!E11="","",_tags_day_all!E11)</f>
         <v/>
       </c>
-      <c r="H17" s="41" t="str">
+      <c r="H17" s="9" t="str">
         <f>IF(_tags_day_all!F11="","",_tags_day_all!F11)</f>
         <v/>
       </c>
-      <c r="I17" s="41" t="str">
+      <c r="I17" s="9" t="str">
         <f>IF(_tags_day_all!G11="","",_tags_day_all!G11)</f>
         <v/>
       </c>
-      <c r="J17" s="41" t="str">
+      <c r="J17" s="9" t="str">
         <f>IF(_tags_day_all!H11="","",_tags_day_all!H11)</f>
         <v/>
       </c>
-      <c r="K17" s="41" t="str">
+      <c r="K17" s="9" t="str">
         <f>IF(_tags_day_all!I11="","",_tags_day_all!I11)</f>
         <v/>
       </c>
-      <c r="L17" s="41" t="str">
+      <c r="L17" s="9" t="str">
         <f>IF(_tags_day_all!J11="","",_tags_day_all!J11)</f>
         <v/>
       </c>
-      <c r="M17" s="41" t="str">
+      <c r="M17" s="9" t="str">
         <f>IF(_tags_day_all!K11="","",_tags_day_all!K11)</f>
         <v/>
       </c>
-      <c r="N17" s="41" t="str">
+      <c r="N17" s="9" t="str">
         <f>IF(_tags_day_all!L11="","",_tags_day_all!L11)</f>
         <v/>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="27"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="34"/>
     </row>
     <row r="18" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+      <c r="B18" s="8">
         <v>16</v>
       </c>
-      <c r="C18" s="41" t="str">
+      <c r="C18" s="9" t="str">
         <f>IF(_tags_day_all!A12="","",_tags_day_all!A12)</f>
         <v/>
       </c>
-      <c r="D18" s="41" t="str">
+      <c r="D18" s="9" t="str">
         <f>IF(_tags_day_all!B12="","",_tags_day_all!B12)</f>
         <v/>
       </c>
-      <c r="E18" s="41" t="str">
+      <c r="E18" s="9" t="str">
         <f>IF(_tags_day_all!C12="","",_tags_day_all!C12)</f>
         <v/>
       </c>
-      <c r="F18" s="41" t="str">
+      <c r="F18" s="9" t="str">
         <f>IF(_tags_day_all!D12="","",_tags_day_all!D12)</f>
         <v/>
       </c>
-      <c r="G18" s="41" t="str">
+      <c r="G18" s="9" t="str">
         <f>IF(_tags_day_all!E12="","",_tags_day_all!E12)</f>
         <v/>
       </c>
-      <c r="H18" s="41" t="str">
+      <c r="H18" s="9" t="str">
         <f>IF(_tags_day_all!F12="","",_tags_day_all!F12)</f>
         <v/>
       </c>
-      <c r="I18" s="41" t="str">
+      <c r="I18" s="9" t="str">
         <f>IF(_tags_day_all!G12="","",_tags_day_all!G12)</f>
         <v/>
       </c>
-      <c r="J18" s="41" t="str">
+      <c r="J18" s="9" t="str">
         <f>IF(_tags_day_all!H12="","",_tags_day_all!H12)</f>
         <v/>
       </c>
-      <c r="K18" s="41" t="str">
+      <c r="K18" s="9" t="str">
         <f>IF(_tags_day_all!I12="","",_tags_day_all!I12)</f>
         <v/>
       </c>
-      <c r="L18" s="41" t="str">
+      <c r="L18" s="9" t="str">
         <f>IF(_tags_day_all!J12="","",_tags_day_all!J12)</f>
         <v/>
       </c>
-      <c r="M18" s="41" t="str">
+      <c r="M18" s="9" t="str">
         <f>IF(_tags_day_all!K12="","",_tags_day_all!K12)</f>
         <v/>
       </c>
-      <c r="N18" s="41" t="str">
+      <c r="N18" s="9" t="str">
         <f>IF(_tags_day_all!L12="","",_tags_day_all!L12)</f>
         <v/>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="27"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="34"/>
     </row>
     <row r="19" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+      <c r="B19" s="8">
         <v>18</v>
       </c>
-      <c r="C19" s="41" t="str">
+      <c r="C19" s="9" t="str">
         <f>IF(_tags_day_all!A13="","",_tags_day_all!A13)</f>
         <v/>
       </c>
-      <c r="D19" s="41" t="str">
+      <c r="D19" s="9" t="str">
         <f>IF(_tags_day_all!B13="","",_tags_day_all!B13)</f>
         <v/>
       </c>
-      <c r="E19" s="41" t="str">
+      <c r="E19" s="9" t="str">
         <f>IF(_tags_day_all!C13="","",_tags_day_all!C13)</f>
         <v/>
       </c>
-      <c r="F19" s="41" t="str">
+      <c r="F19" s="9" t="str">
         <f>IF(_tags_day_all!D13="","",_tags_day_all!D13)</f>
         <v/>
       </c>
-      <c r="G19" s="41" t="str">
+      <c r="G19" s="9" t="str">
         <f>IF(_tags_day_all!E13="","",_tags_day_all!E13)</f>
         <v/>
       </c>
-      <c r="H19" s="41" t="str">
+      <c r="H19" s="9" t="str">
         <f>IF(_tags_day_all!F13="","",_tags_day_all!F13)</f>
         <v/>
       </c>
-      <c r="I19" s="41" t="str">
+      <c r="I19" s="9" t="str">
         <f>IF(_tags_day_all!G13="","",_tags_day_all!G13)</f>
         <v/>
       </c>
-      <c r="J19" s="41" t="str">
+      <c r="J19" s="9" t="str">
         <f>IF(_tags_day_all!H13="","",_tags_day_all!H13)</f>
         <v/>
       </c>
-      <c r="K19" s="41" t="str">
+      <c r="K19" s="9" t="str">
         <f>IF(_tags_day_all!I13="","",_tags_day_all!I13)</f>
         <v/>
       </c>
-      <c r="L19" s="41" t="str">
+      <c r="L19" s="9" t="str">
         <f>IF(_tags_day_all!J13="","",_tags_day_all!J13)</f>
         <v/>
       </c>
-      <c r="M19" s="41" t="str">
+      <c r="M19" s="9" t="str">
         <f>IF(_tags_day_all!K13="","",_tags_day_all!K13)</f>
         <v/>
       </c>
-      <c r="N19" s="41" t="str">
+      <c r="N19" s="9" t="str">
         <f>IF(_tags_day_all!L13="","",_tags_day_all!L13)</f>
         <v/>
       </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="27"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
     </row>
     <row r="20" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="42" t="str">
+      <c r="B20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="11" t="str">
         <f>IFERROR(AVERAGE(C14:C19),"")</f>
         <v/>
       </c>
-      <c r="D20" s="42" t="str">
+      <c r="D20" s="11" t="str">
         <f t="shared" ref="D20:N20" si="0">IFERROR(AVERAGE(D14:D19),"")</f>
         <v/>
       </c>
-      <c r="E20" s="42" t="str">
+      <c r="E20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="42" t="str">
+      <c r="F20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G20" s="42" t="str">
+      <c r="G20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="42" t="str">
+      <c r="H20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="42" t="str">
+      <c r="I20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="42" t="str">
+      <c r="J20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K20" s="42" t="str">
+      <c r="K20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L20" s="42" t="str">
+      <c r="L20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N20" s="42" t="str">
+      <c r="N20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="27"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="34"/>
     </row>
     <row r="21" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="42" t="str">
+      <c r="B21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="11" t="str">
         <f>IFERROR(AVERAGE(C8:C13),"")</f>
         <v/>
       </c>
-      <c r="D21" s="42" t="str">
+      <c r="D21" s="11" t="str">
         <f t="shared" ref="D21:N21" si="1">IFERROR(AVERAGE(D8:D13),"")</f>
         <v/>
       </c>
-      <c r="E21" s="42" t="str">
+      <c r="E21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F21" s="42" t="str">
+      <c r="F21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G21" s="42" t="str">
+      <c r="G21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H21" s="42" t="str">
+      <c r="H21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I21" s="42" t="str">
+      <c r="I21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J21" s="42" t="str">
+      <c r="J21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K21" s="42" t="str">
+      <c r="K21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L21" s="42" t="str">
+      <c r="L21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M21" s="42" t="str">
+      <c r="M21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N21" s="42" t="str">
+      <c r="N21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="27"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="34"/>
     </row>
     <row r="22" spans="2:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="42" t="str">
+      <c r="B22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11" t="str">
         <f>IFERROR(AVERAGE(C8:C19),"")</f>
         <v/>
       </c>
-      <c r="D22" s="42" t="str">
-        <f t="shared" ref="D22:M22" si="2">IFERROR(AVERAGE(D8:D19),"")</f>
-        <v/>
-      </c>
-      <c r="E22" s="42" t="str">
+      <c r="D22" s="11" t="str">
+        <f t="shared" ref="D22:N22" si="2">IFERROR(AVERAGE(D8:D19),"")</f>
+        <v/>
+      </c>
+      <c r="E22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F22" s="42" t="str">
+      <c r="F22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G22" s="42" t="str">
+      <c r="G22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H22" s="42" t="str">
+      <c r="H22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I22" s="42" t="str">
+      <c r="I22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J22" s="42" t="str">
+      <c r="J22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K22" s="42" t="str">
+      <c r="K22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L22" s="42" t="str">
+      <c r="L22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M22" s="42" t="str">
+      <c r="M22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N22" s="42" t="str">
-        <f>IFERROR(AVERAGE(N8:N19),"")</f>
-        <v/>
-      </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="27"/>
+      <c r="N22" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="34"/>
     </row>
-    <row r="23" spans="2:17" ht="36.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="15"/>
+    <row r="23" spans="2:17" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="20"/>
     </row>
-    <row r="24" spans="2:17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B2:Q2"/>
+  <mergeCells count="23">
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="L5:L7"/>
     <mergeCell ref="M5:M7"/>
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="O8:Q13"/>
     <mergeCell ref="O14:Q22"/>
     <mergeCell ref="O5:Q7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="B23:K23"/>
     <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="K6:K7"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7468D8-1D03-430E-897A-E2F28F4AED7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="10.77734375" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="13" width="10.77734375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" ht="69" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="6" t="s">
         <v>36</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598051A1-AE83-487F-8F64-2ED3465FB0C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="6">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1">
         <v>910</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
